--- a/novels.xlsx
+++ b/novels.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1149"/>
+  <dimension ref="A1:M1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,12 +469,22 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>MAL avg. rating</t>
+          <t>Average sentence length</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>MAL rating count</t>
+          <t>Characters</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>VNDB avg. rating</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>VNDB rating count</t>
         </is>
       </c>
     </row>

--- a/novels.xlsx
+++ b/novels.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1149"/>
+  <dimension ref="A1:L1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,12 +479,7 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>VNDB avg. rating</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>VNDB rating count</t>
+          <t>Volumes</t>
         </is>
       </c>
     </row>
